--- a/data/pca/factorExposure/factorExposure_2012-01-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-01-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01670342113671342</v>
+        <v>0.01581519314377771</v>
       </c>
       <c r="C2">
-        <v>0.03129727574729449</v>
+        <v>0.02594341340788163</v>
       </c>
       <c r="D2">
-        <v>-0.01842725071389677</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01692305487948823</v>
+      </c>
+      <c r="E2">
+        <v>-0.01292063900528617</v>
+      </c>
+      <c r="F2">
+        <v>0.01341512674227105</v>
+      </c>
+      <c r="G2">
+        <v>0.006641903786399339</v>
+      </c>
+      <c r="H2">
+        <v>-0.05078647640280979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07324369331150549</v>
+        <v>0.08789854217332095</v>
       </c>
       <c r="C4">
-        <v>0.05301190038602613</v>
+        <v>0.04074454963556654</v>
       </c>
       <c r="D4">
-        <v>-0.08696012457731193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0674380483510668</v>
+      </c>
+      <c r="E4">
+        <v>-0.006871748596248384</v>
+      </c>
+      <c r="F4">
+        <v>0.03724344718285927</v>
+      </c>
+      <c r="G4">
+        <v>0.002850630892981882</v>
+      </c>
+      <c r="H4">
+        <v>0.03682185794583737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1093331909015444</v>
+        <v>0.1205308114072558</v>
       </c>
       <c r="C6">
-        <v>0.05023955893471651</v>
+        <v>0.03570591144112134</v>
       </c>
       <c r="D6">
-        <v>-0.006510884794518105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01183713560705087</v>
+      </c>
+      <c r="E6">
+        <v>0.02295778952531476</v>
+      </c>
+      <c r="F6">
+        <v>0.05548915815808313</v>
+      </c>
+      <c r="G6">
+        <v>0.03485894286638592</v>
+      </c>
+      <c r="H6">
+        <v>-0.1208902059869233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05375514913035279</v>
+        <v>0.06304514342278132</v>
       </c>
       <c r="C7">
-        <v>0.02498221043090396</v>
+        <v>0.0145980956431816</v>
       </c>
       <c r="D7">
-        <v>-0.03665916459078555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04732200279164923</v>
+      </c>
+      <c r="E7">
+        <v>-0.0374233157912335</v>
+      </c>
+      <c r="F7">
+        <v>0.03528714117517141</v>
+      </c>
+      <c r="G7">
+        <v>-0.02962250764318119</v>
+      </c>
+      <c r="H7">
+        <v>0.01336455291684854</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03995905841991874</v>
+        <v>0.04140363401907653</v>
       </c>
       <c r="C8">
-        <v>0.01429748383621161</v>
+        <v>0.009502900305977521</v>
       </c>
       <c r="D8">
-        <v>-0.0634112152490883</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02616909126787531</v>
+      </c>
+      <c r="E8">
+        <v>-0.01962226886983636</v>
+      </c>
+      <c r="F8">
+        <v>0.05893347309603287</v>
+      </c>
+      <c r="G8">
+        <v>0.05556839506185438</v>
+      </c>
+      <c r="H8">
+        <v>0.0006671001902972371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06785079623674407</v>
+        <v>0.0788830664233483</v>
       </c>
       <c r="C9">
-        <v>0.0395061250181245</v>
+        <v>0.02744587128366768</v>
       </c>
       <c r="D9">
-        <v>-0.0767421673676298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06361460460795665</v>
+      </c>
+      <c r="E9">
+        <v>-0.0275039584670206</v>
+      </c>
+      <c r="F9">
+        <v>0.03570913903807607</v>
+      </c>
+      <c r="G9">
+        <v>0.01062966791811046</v>
+      </c>
+      <c r="H9">
+        <v>0.05224855467308648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03145627623133417</v>
+        <v>0.0368020418816932</v>
       </c>
       <c r="C10">
-        <v>0.0253076222062234</v>
+        <v>0.0447562823046526</v>
       </c>
       <c r="D10">
-        <v>0.1708353291484589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1724709082506513</v>
+      </c>
+      <c r="E10">
+        <v>-0.0361640768809061</v>
+      </c>
+      <c r="F10">
+        <v>0.05153340385589892</v>
+      </c>
+      <c r="G10">
+        <v>-0.01647283588238731</v>
+      </c>
+      <c r="H10">
+        <v>-0.03093053277274383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07363261632929032</v>
+        <v>0.07728489167084805</v>
       </c>
       <c r="C11">
-        <v>0.04342617604798066</v>
+        <v>0.02468906853210063</v>
       </c>
       <c r="D11">
-        <v>-0.05333131310779734</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06125563618431598</v>
+      </c>
+      <c r="E11">
+        <v>0.005844927186181206</v>
+      </c>
+      <c r="F11">
+        <v>0.03033973284832905</v>
+      </c>
+      <c r="G11">
+        <v>0.008583704712427573</v>
+      </c>
+      <c r="H11">
+        <v>0.08765348109429572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06141885338609651</v>
+        <v>0.06954140609426822</v>
       </c>
       <c r="C12">
-        <v>0.05165974505107505</v>
+        <v>0.0362786711056095</v>
       </c>
       <c r="D12">
-        <v>-0.04365304490347212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04588625123875714</v>
+      </c>
+      <c r="E12">
+        <v>-0.01133215450484665</v>
+      </c>
+      <c r="F12">
+        <v>0.02286646240508632</v>
+      </c>
+      <c r="G12">
+        <v>0.009258209269366893</v>
+      </c>
+      <c r="H12">
+        <v>0.04146963416931038</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06393661003373545</v>
+        <v>0.06670477782001624</v>
       </c>
       <c r="C13">
-        <v>0.0329236363604621</v>
+        <v>0.01943945852922551</v>
       </c>
       <c r="D13">
-        <v>-0.05614581910271256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03865630543163699</v>
+      </c>
+      <c r="E13">
+        <v>-0.01228331658193142</v>
+      </c>
+      <c r="F13">
+        <v>0.009772828701202406</v>
+      </c>
+      <c r="G13">
+        <v>0.0001676843498298246</v>
+      </c>
+      <c r="H13">
+        <v>0.05195011427615522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03333927149128782</v>
+        <v>0.03989705258758289</v>
       </c>
       <c r="C14">
-        <v>0.03092134539683473</v>
+        <v>0.02779543793078721</v>
       </c>
       <c r="D14">
-        <v>-0.002506773243424893</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01157605020338536</v>
+      </c>
+      <c r="E14">
+        <v>-0.03193488945406152</v>
+      </c>
+      <c r="F14">
+        <v>0.01506623435958458</v>
+      </c>
+      <c r="G14">
+        <v>0.01198074266113284</v>
+      </c>
+      <c r="H14">
+        <v>0.05860920867226223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04022869079275002</v>
+        <v>0.03984427054494437</v>
       </c>
       <c r="C15">
-        <v>0.008560850070248077</v>
+        <v>0.002846522958154263</v>
       </c>
       <c r="D15">
-        <v>-0.02092090632897812</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007444909475167341</v>
+      </c>
+      <c r="E15">
+        <v>-0.03591308143866733</v>
+      </c>
+      <c r="F15">
+        <v>2.153912746772649e-05</v>
+      </c>
+      <c r="G15">
+        <v>0.02570734320258856</v>
+      </c>
+      <c r="H15">
+        <v>0.03357480850332004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06191276829715631</v>
+        <v>0.07149585413448131</v>
       </c>
       <c r="C16">
-        <v>0.04047696301701949</v>
+        <v>0.02658177197144691</v>
       </c>
       <c r="D16">
-        <v>-0.04779811025510634</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05950803980578899</v>
+      </c>
+      <c r="E16">
+        <v>-0.00348125308426743</v>
+      </c>
+      <c r="F16">
+        <v>0.02932354227558251</v>
+      </c>
+      <c r="G16">
+        <v>0.003835979591978085</v>
+      </c>
+      <c r="H16">
+        <v>0.05917448421753935</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06239785135777479</v>
+        <v>0.06294985893241493</v>
       </c>
       <c r="C20">
-        <v>0.02359244688626445</v>
+        <v>0.009413360458244707</v>
       </c>
       <c r="D20">
-        <v>-0.05145958390229682</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03869288129934161</v>
+      </c>
+      <c r="E20">
+        <v>-0.01634462445517582</v>
+      </c>
+      <c r="F20">
+        <v>0.03052426381822123</v>
+      </c>
+      <c r="G20">
+        <v>0.01668353429309026</v>
+      </c>
+      <c r="H20">
+        <v>0.04455017672405912</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02611236533475018</v>
+        <v>0.02588446225885117</v>
       </c>
       <c r="C21">
-        <v>-0.002842050124263027</v>
+        <v>-0.009986988037861959</v>
       </c>
       <c r="D21">
-        <v>-0.02436802522229203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02365658605885078</v>
+      </c>
+      <c r="E21">
+        <v>-0.04406957561951381</v>
+      </c>
+      <c r="F21">
+        <v>-0.01355754649048202</v>
+      </c>
+      <c r="G21">
+        <v>0.01526037467153156</v>
+      </c>
+      <c r="H21">
+        <v>-0.0537373766116379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07926793976945189</v>
+        <v>0.0709819784415565</v>
       </c>
       <c r="C22">
-        <v>0.0593978449394307</v>
+        <v>0.03620129102907925</v>
       </c>
       <c r="D22">
-        <v>-0.1292566047417538</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.08997559367114827</v>
+      </c>
+      <c r="E22">
+        <v>-0.6056564170952246</v>
+      </c>
+      <c r="F22">
+        <v>-0.1258877699548497</v>
+      </c>
+      <c r="G22">
+        <v>-0.08760421887189408</v>
+      </c>
+      <c r="H22">
+        <v>-0.1668977329511235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.08025226032382042</v>
+        <v>0.07182374028920548</v>
       </c>
       <c r="C23">
-        <v>0.0581386165893947</v>
+        <v>0.03475253875795577</v>
       </c>
       <c r="D23">
-        <v>-0.1306267081637905</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.09069563758284636</v>
+      </c>
+      <c r="E23">
+        <v>-0.604746512444888</v>
+      </c>
+      <c r="F23">
+        <v>-0.1248325425772246</v>
+      </c>
+      <c r="G23">
+        <v>-0.08665742819118306</v>
+      </c>
+      <c r="H23">
+        <v>-0.163479273778245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07532422935611828</v>
+        <v>0.08085404258387992</v>
       </c>
       <c r="C24">
-        <v>0.05115969324682631</v>
+        <v>0.03308926624916111</v>
       </c>
       <c r="D24">
-        <v>-0.05715646156715194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05954282664026292</v>
+      </c>
+      <c r="E24">
+        <v>-0.0159264101099183</v>
+      </c>
+      <c r="F24">
+        <v>0.03894309813952291</v>
+      </c>
+      <c r="G24">
+        <v>0.01980478761645815</v>
+      </c>
+      <c r="H24">
+        <v>0.04826611414229446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07525046353719209</v>
+        <v>0.07924830294304938</v>
       </c>
       <c r="C25">
-        <v>0.0545759394919525</v>
+        <v>0.03636460243574856</v>
       </c>
       <c r="D25">
-        <v>-0.06439347842054836</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05014013928159745</v>
+      </c>
+      <c r="E25">
+        <v>-0.01964059387486456</v>
+      </c>
+      <c r="F25">
+        <v>0.0309169582259512</v>
+      </c>
+      <c r="G25">
+        <v>0.0282139032261467</v>
+      </c>
+      <c r="H25">
+        <v>0.05546855099293519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04578569327798886</v>
+        <v>0.04753346753211218</v>
       </c>
       <c r="C26">
-        <v>0.009019174605379482</v>
+        <v>0.001366943564087241</v>
       </c>
       <c r="D26">
-        <v>-0.01148864403164314</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01691599293907937</v>
+      </c>
+      <c r="E26">
+        <v>-0.04232190104827894</v>
+      </c>
+      <c r="F26">
+        <v>0.03184516687774454</v>
+      </c>
+      <c r="G26">
+        <v>-0.005280998327483051</v>
+      </c>
+      <c r="H26">
+        <v>0.0514063290540059</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05194146306398843</v>
+        <v>0.06373314897654872</v>
       </c>
       <c r="C28">
-        <v>0.06811020537727051</v>
+        <v>0.09590429449901179</v>
       </c>
       <c r="D28">
-        <v>0.3014394764909053</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3021333130095372</v>
+      </c>
+      <c r="E28">
+        <v>-0.03291569084632618</v>
+      </c>
+      <c r="F28">
+        <v>0.05562217326551429</v>
+      </c>
+      <c r="G28">
+        <v>0.03756627288168857</v>
+      </c>
+      <c r="H28">
+        <v>-0.04512967451855302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04219790904965839</v>
+        <v>0.04864470431285115</v>
       </c>
       <c r="C29">
-        <v>0.02900757682500722</v>
+        <v>0.02566751511707671</v>
       </c>
       <c r="D29">
-        <v>-0.008452133449964315</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.008672456679610606</v>
+      </c>
+      <c r="E29">
+        <v>-0.06052044330336817</v>
+      </c>
+      <c r="F29">
+        <v>0.0149665475384239</v>
+      </c>
+      <c r="G29">
+        <v>-0.004673468050560257</v>
+      </c>
+      <c r="H29">
+        <v>0.07096626274502139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1298601080202323</v>
+        <v>0.1309161273459291</v>
       </c>
       <c r="C30">
-        <v>0.08725013416521972</v>
+        <v>0.06054295716083708</v>
       </c>
       <c r="D30">
-        <v>-0.09639839158368765</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06873147644656727</v>
+      </c>
+      <c r="E30">
+        <v>-0.08328019657259109</v>
+      </c>
+      <c r="F30">
+        <v>0.005061272841495839</v>
+      </c>
+      <c r="G30">
+        <v>0.0858327745308089</v>
+      </c>
+      <c r="H30">
+        <v>-0.05728758690987506</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0448267958368632</v>
+        <v>0.04863689307357747</v>
       </c>
       <c r="C31">
-        <v>0.02226765005747084</v>
+        <v>0.013495780798386</v>
       </c>
       <c r="D31">
-        <v>-0.02414177088712452</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02976567318942392</v>
+      </c>
+      <c r="E31">
+        <v>-0.02451193631094561</v>
+      </c>
+      <c r="F31">
+        <v>0.01259050417618694</v>
+      </c>
+      <c r="G31">
+        <v>-0.02261575616414032</v>
+      </c>
+      <c r="H31">
+        <v>0.06746953642181551</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03706356135011749</v>
+        <v>0.03764209896054063</v>
       </c>
       <c r="C32">
-        <v>0.02448703314171637</v>
+        <v>0.02082983891233443</v>
       </c>
       <c r="D32">
-        <v>-0.02507796638975686</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.009882193009786254</v>
+      </c>
+      <c r="E32">
+        <v>-0.05371155577081492</v>
+      </c>
+      <c r="F32">
+        <v>-0.004967358984386926</v>
+      </c>
+      <c r="G32">
+        <v>0.03094060770937978</v>
+      </c>
+      <c r="H32">
+        <v>0.07046228322988432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08476151497745686</v>
+        <v>0.09659794243475807</v>
       </c>
       <c r="C33">
-        <v>0.03912567910574688</v>
+        <v>0.02488056329104522</v>
       </c>
       <c r="D33">
-        <v>-0.05906916049236483</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04390511972714527</v>
+      </c>
+      <c r="E33">
+        <v>-0.0155133712563506</v>
+      </c>
+      <c r="F33">
+        <v>0.008754659917003494</v>
+      </c>
+      <c r="G33">
+        <v>-0.0004635361860843259</v>
+      </c>
+      <c r="H33">
+        <v>0.05729289915422597</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0591674654632595</v>
+        <v>0.06410771604088836</v>
       </c>
       <c r="C34">
-        <v>0.02546372842875242</v>
+        <v>0.01104709856874968</v>
       </c>
       <c r="D34">
-        <v>-0.05415253275946474</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04861957835350455</v>
+      </c>
+      <c r="E34">
+        <v>-0.007462364277836579</v>
+      </c>
+      <c r="F34">
+        <v>0.02104505317938089</v>
+      </c>
+      <c r="G34">
+        <v>0.004678570048630028</v>
+      </c>
+      <c r="H34">
+        <v>0.06356254547606155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03578526003326084</v>
+        <v>0.03844717645683025</v>
       </c>
       <c r="C35">
-        <v>0.007257389708992875</v>
+        <v>0.002600893070627338</v>
       </c>
       <c r="D35">
-        <v>-0.02340874854164239</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01365895441255553</v>
+      </c>
+      <c r="E35">
+        <v>-0.02176860076792671</v>
+      </c>
+      <c r="F35">
+        <v>-0.01669193566778899</v>
+      </c>
+      <c r="G35">
+        <v>-0.007824030230306348</v>
+      </c>
+      <c r="H35">
+        <v>0.01880881002344238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02327159299407818</v>
+        <v>0.02978213597320385</v>
       </c>
       <c r="C36">
-        <v>0.01745870782876856</v>
+        <v>0.01555789765308335</v>
       </c>
       <c r="D36">
-        <v>-0.02152062269035563</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01288170396378421</v>
+      </c>
+      <c r="E36">
+        <v>-0.03040037721005389</v>
+      </c>
+      <c r="F36">
+        <v>0.02476672829378831</v>
+      </c>
+      <c r="G36">
+        <v>-0.003431188722858116</v>
+      </c>
+      <c r="H36">
+        <v>0.04118682223249325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04210293986817015</v>
+        <v>0.04401390924331327</v>
       </c>
       <c r="C38">
-        <v>0.001292904378274864</v>
+        <v>-0.004902236557020891</v>
       </c>
       <c r="D38">
-        <v>-0.01874375424406858</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01995238568478174</v>
+      </c>
+      <c r="E38">
+        <v>-0.05083532296652954</v>
+      </c>
+      <c r="F38">
+        <v>-0.004943371519629899</v>
+      </c>
+      <c r="G38">
+        <v>0.009233215746941283</v>
+      </c>
+      <c r="H38">
+        <v>0.03493680822857052</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09261809283278455</v>
+        <v>0.1005709284022406</v>
       </c>
       <c r="C39">
-        <v>0.06817414924671961</v>
+        <v>0.04848333609870228</v>
       </c>
       <c r="D39">
-        <v>-0.05300295561163038</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06351965760049555</v>
+      </c>
+      <c r="E39">
+        <v>-0.008633601036817398</v>
+      </c>
+      <c r="F39">
+        <v>-0.002750705965807339</v>
+      </c>
+      <c r="G39">
+        <v>0.04023232248845775</v>
+      </c>
+      <c r="H39">
+        <v>0.04789307912624333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07933689136955402</v>
+        <v>0.06823058179608932</v>
       </c>
       <c r="C40">
-        <v>0.03302131516177709</v>
+        <v>0.009716657016577713</v>
       </c>
       <c r="D40">
-        <v>-0.00223301025181752</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02047395418128796</v>
+      </c>
+      <c r="E40">
+        <v>-0.03366646535352696</v>
+      </c>
+      <c r="F40">
+        <v>-0.05091222990464775</v>
+      </c>
+      <c r="G40">
+        <v>0.04389938861161047</v>
+      </c>
+      <c r="H40">
+        <v>-0.07606027477754651</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0430232497831059</v>
+        <v>0.04467103705378263</v>
       </c>
       <c r="C41">
-        <v>0.005117931577870815</v>
+        <v>-0.004356741440303242</v>
       </c>
       <c r="D41">
-        <v>-0.03437418455294082</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03117723823849881</v>
+      </c>
+      <c r="E41">
+        <v>-0.002451147251203728</v>
+      </c>
+      <c r="F41">
+        <v>-0.01571280344084832</v>
+      </c>
+      <c r="G41">
+        <v>0.01462867241248386</v>
+      </c>
+      <c r="H41">
+        <v>0.04144478317295252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05215444280170869</v>
+        <v>0.05913522043753619</v>
       </c>
       <c r="C43">
-        <v>0.0256797431105732</v>
+        <v>0.01681987950078866</v>
       </c>
       <c r="D43">
-        <v>-0.01521243349606999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02688112761483522</v>
+      </c>
+      <c r="E43">
+        <v>-0.02285514126391201</v>
+      </c>
+      <c r="F43">
+        <v>0.01280163742706618</v>
+      </c>
+      <c r="G43">
+        <v>-0.0171103182838639</v>
+      </c>
+      <c r="H43">
+        <v>0.06414389010709534</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09702960927344023</v>
+        <v>0.09660830659256055</v>
       </c>
       <c r="C44">
-        <v>0.0850019053465778</v>
+        <v>0.05996716763708158</v>
       </c>
       <c r="D44">
-        <v>-0.07578006521391455</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.06361270502651525</v>
+      </c>
+      <c r="E44">
+        <v>-0.08046209750745771</v>
+      </c>
+      <c r="F44">
+        <v>0.07277608525305247</v>
+      </c>
+      <c r="G44">
+        <v>0.03166677299081298</v>
+      </c>
+      <c r="H44">
+        <v>0.02588380219952522</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0266732873930835</v>
+        <v>0.03470215118893782</v>
       </c>
       <c r="C46">
-        <v>0.016017130274858</v>
+        <v>0.01175476134806934</v>
       </c>
       <c r="D46">
-        <v>-0.02563225947466136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03520830896329515</v>
+      </c>
+      <c r="E46">
+        <v>-0.03439421167872699</v>
+      </c>
+      <c r="F46">
+        <v>0.01335555816301006</v>
+      </c>
+      <c r="G46">
+        <v>-0.007463476182400926</v>
+      </c>
+      <c r="H46">
+        <v>0.03288103150077013</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03087358147864712</v>
+        <v>0.03851437848289294</v>
       </c>
       <c r="C47">
-        <v>0.02338756962712333</v>
+        <v>0.01954301140925573</v>
       </c>
       <c r="D47">
-        <v>-0.005724125050348102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.007838217503537033</v>
+      </c>
+      <c r="E47">
+        <v>-0.0440607877965762</v>
+      </c>
+      <c r="F47">
+        <v>0.01308381033161289</v>
+      </c>
+      <c r="G47">
+        <v>-0.04268944082472854</v>
+      </c>
+      <c r="H47">
+        <v>0.0312926327758116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03411224564588369</v>
+        <v>0.03863379612487911</v>
       </c>
       <c r="C48">
-        <v>0.01748861965748041</v>
+        <v>0.01080119939016113</v>
       </c>
       <c r="D48">
-        <v>-0.03308656185354821</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01884066844240198</v>
+      </c>
+      <c r="E48">
+        <v>-0.03874173554703618</v>
+      </c>
+      <c r="F48">
+        <v>0.009960904411549256</v>
+      </c>
+      <c r="G48">
+        <v>0.01528950445567228</v>
+      </c>
+      <c r="H48">
+        <v>0.03761259748326495</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1619750719455456</v>
+        <v>0.1912077127746715</v>
       </c>
       <c r="C49">
-        <v>0.04905653942390303</v>
+        <v>0.03098151806614646</v>
       </c>
       <c r="D49">
-        <v>0.00223062521317899</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.03032587025685654</v>
+      </c>
+      <c r="E49">
+        <v>0.1627685107086088</v>
+      </c>
+      <c r="F49">
+        <v>0.05639705788030128</v>
+      </c>
+      <c r="G49">
+        <v>-0.07208737748575579</v>
+      </c>
+      <c r="H49">
+        <v>-0.222625122967879</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03962823297772562</v>
+        <v>0.04541045027451776</v>
       </c>
       <c r="C50">
-        <v>0.01943372886248044</v>
+        <v>0.0126628744336613</v>
       </c>
       <c r="D50">
-        <v>-0.04432667903263739</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0358696413659352</v>
+      </c>
+      <c r="E50">
+        <v>-0.04143092944684489</v>
+      </c>
+      <c r="F50">
+        <v>0.01424164735731366</v>
+      </c>
+      <c r="G50">
+        <v>-0.02329730387935725</v>
+      </c>
+      <c r="H50">
+        <v>0.06882021820912705</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02833255046154653</v>
+        <v>0.02973320661701901</v>
       </c>
       <c r="C51">
-        <v>0.009607279642880696</v>
+        <v>0.003181745739884094</v>
       </c>
       <c r="D51">
-        <v>-0.00556011077476911</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.009461937308383865</v>
+      </c>
+      <c r="E51">
+        <v>-0.01112934445155797</v>
+      </c>
+      <c r="F51">
+        <v>0.01549709644742041</v>
+      </c>
+      <c r="G51">
+        <v>0.003754079111474383</v>
+      </c>
+      <c r="H51">
+        <v>-0.001712370911787987</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1558793446657714</v>
+        <v>0.16329540146983</v>
       </c>
       <c r="C53">
-        <v>0.07217102718162734</v>
+        <v>0.05000940958773946</v>
       </c>
       <c r="D53">
-        <v>-0.003533176788671812</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02136510985565678</v>
+      </c>
+      <c r="E53">
+        <v>0.02896288192946757</v>
+      </c>
+      <c r="F53">
+        <v>0.01093753086522732</v>
+      </c>
+      <c r="G53">
+        <v>-0.02295133023397743</v>
+      </c>
+      <c r="H53">
+        <v>0.1807131456387513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05767056439525397</v>
+        <v>0.05860824889247144</v>
       </c>
       <c r="C54">
-        <v>0.0227574738751153</v>
+        <v>0.01303829135435558</v>
       </c>
       <c r="D54">
-        <v>-0.0197090111680038</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01268848273016692</v>
+      </c>
+      <c r="E54">
+        <v>-0.04549768416448364</v>
+      </c>
+      <c r="F54">
+        <v>0.005357776504612416</v>
+      </c>
+      <c r="G54">
+        <v>0.02679409711935228</v>
+      </c>
+      <c r="H54">
+        <v>0.04843089327390999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1000764732205575</v>
+        <v>0.1046087132206503</v>
       </c>
       <c r="C55">
-        <v>0.04875099330994277</v>
+        <v>0.03326101449698222</v>
       </c>
       <c r="D55">
-        <v>-0.02049904878499334</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02370947359963586</v>
+      </c>
+      <c r="E55">
+        <v>-0.007245060580925814</v>
+      </c>
+      <c r="F55">
+        <v>0.01301629664083532</v>
+      </c>
+      <c r="G55">
+        <v>-0.01457681707598391</v>
+      </c>
+      <c r="H55">
+        <v>0.1563759978280471</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1523936197777595</v>
+        <v>0.1616233970543827</v>
       </c>
       <c r="C56">
-        <v>0.08377442772065305</v>
+        <v>0.05918155592740775</v>
       </c>
       <c r="D56">
-        <v>-0.01385796199473096</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02834625593073944</v>
+      </c>
+      <c r="E56">
+        <v>0.02181148410749681</v>
+      </c>
+      <c r="F56">
+        <v>0.02982511184632787</v>
+      </c>
+      <c r="G56">
+        <v>-0.03839905635622824</v>
+      </c>
+      <c r="H56">
+        <v>0.1832394980528845</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1305788335383485</v>
+        <v>0.09926936380184097</v>
       </c>
       <c r="C58">
-        <v>-0.005200962758430782</v>
+        <v>-0.04625649594929322</v>
       </c>
       <c r="D58">
-        <v>-0.0229778238103471</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03396901830727445</v>
+      </c>
+      <c r="E58">
+        <v>-0.1440528723793411</v>
+      </c>
+      <c r="F58">
+        <v>0.007017430405571231</v>
+      </c>
+      <c r="G58">
+        <v>-0.02220914914774483</v>
+      </c>
+      <c r="H58">
+        <v>-0.200546010325893</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1229238731842349</v>
+        <v>0.1399127878524971</v>
       </c>
       <c r="C59">
-        <v>0.07494151633300229</v>
+        <v>0.1027522071488167</v>
       </c>
       <c r="D59">
-        <v>0.378294381548778</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3602709573239756</v>
+      </c>
+      <c r="E59">
+        <v>-0.02713958710031713</v>
+      </c>
+      <c r="F59">
+        <v>0.01280737955431313</v>
+      </c>
+      <c r="G59">
+        <v>-0.01308017542081686</v>
+      </c>
+      <c r="H59">
+        <v>-0.002329760782548527</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2084722878739261</v>
+        <v>0.2363601827799325</v>
       </c>
       <c r="C60">
-        <v>0.09020867624863312</v>
+        <v>0.06160218861314213</v>
       </c>
       <c r="D60">
-        <v>-0.02865999781458411</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0455748798961266</v>
+      </c>
+      <c r="E60">
+        <v>0.1059900961981655</v>
+      </c>
+      <c r="F60">
+        <v>0.05406296134354492</v>
+      </c>
+      <c r="G60">
+        <v>0.01766802657558346</v>
+      </c>
+      <c r="H60">
+        <v>-0.1485371266373186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08291184647990786</v>
+        <v>0.08976743732641045</v>
       </c>
       <c r="C61">
-        <v>0.04887437792157947</v>
+        <v>0.03489017030486104</v>
       </c>
       <c r="D61">
-        <v>-0.0379815921931126</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04008700416415564</v>
+      </c>
+      <c r="E61">
+        <v>-0.002495821842537463</v>
+      </c>
+      <c r="F61">
+        <v>0.003415304980830868</v>
+      </c>
+      <c r="G61">
+        <v>0.005262887470577769</v>
+      </c>
+      <c r="H61">
+        <v>0.06252036208197385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1312947828747299</v>
+        <v>0.1376740131568332</v>
       </c>
       <c r="C62">
-        <v>0.05931112420541929</v>
+        <v>0.03564246204951182</v>
       </c>
       <c r="D62">
-        <v>-0.02099922194685834</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.0388437738786505</v>
+      </c>
+      <c r="E62">
+        <v>0.05523452177030996</v>
+      </c>
+      <c r="F62">
+        <v>0.00349468036753032</v>
+      </c>
+      <c r="G62">
+        <v>0.003822015017161546</v>
+      </c>
+      <c r="H62">
+        <v>0.1809083457315202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05248294793408731</v>
+        <v>0.05191561889354969</v>
       </c>
       <c r="C63">
-        <v>0.02315637791571033</v>
+        <v>0.01392325627362647</v>
       </c>
       <c r="D63">
-        <v>-0.02344144235367659</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0189676266250486</v>
+      </c>
+      <c r="E63">
+        <v>-0.04903942875566555</v>
+      </c>
+      <c r="F63">
+        <v>-0.004104983497926538</v>
+      </c>
+      <c r="G63">
+        <v>0.01990221271010576</v>
+      </c>
+      <c r="H63">
+        <v>0.04555210961137272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1043969609922901</v>
+        <v>0.1081384113106263</v>
       </c>
       <c r="C64">
-        <v>0.03047347433730589</v>
+        <v>0.01548739576733701</v>
       </c>
       <c r="D64">
-        <v>-0.03381783741761746</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02779618320581031</v>
+      </c>
+      <c r="E64">
+        <v>-0.03235514903717805</v>
+      </c>
+      <c r="F64">
+        <v>0.04310972459446195</v>
+      </c>
+      <c r="G64">
+        <v>0.05686494865993329</v>
+      </c>
+      <c r="H64">
+        <v>0.04385833653970472</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1273796595378996</v>
+        <v>0.1282837943102603</v>
       </c>
       <c r="C65">
-        <v>0.05788381836439677</v>
+        <v>0.0398526365176985</v>
       </c>
       <c r="D65">
-        <v>0.001827234646495979</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.008921957879185861</v>
+      </c>
+      <c r="E65">
+        <v>0.004616907447591257</v>
+      </c>
+      <c r="F65">
+        <v>0.0551486878060229</v>
+      </c>
+      <c r="G65">
+        <v>0.05466174088847809</v>
+      </c>
+      <c r="H65">
+        <v>-0.1525664442590365</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.149294979506297</v>
+        <v>0.1529626168828249</v>
       </c>
       <c r="C66">
-        <v>0.06702275811833516</v>
+        <v>0.0372427806856016</v>
       </c>
       <c r="D66">
-        <v>-0.09773884137024424</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09645997803500678</v>
+      </c>
+      <c r="E66">
+        <v>0.01855361849111004</v>
+      </c>
+      <c r="F66">
+        <v>0.007069791992855115</v>
+      </c>
+      <c r="G66">
+        <v>0.0493574025326483</v>
+      </c>
+      <c r="H66">
+        <v>0.1138513931727638</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07485468182769257</v>
+        <v>0.08422240297572647</v>
       </c>
       <c r="C67">
-        <v>0.008741600926852893</v>
+        <v>-0.0002781122226472478</v>
       </c>
       <c r="D67">
-        <v>-0.02304151115604646</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03170272287088196</v>
+      </c>
+      <c r="E67">
+        <v>-0.0169685554005922</v>
+      </c>
+      <c r="F67">
+        <v>0.01915258034055334</v>
+      </c>
+      <c r="G67">
+        <v>-0.008095046854596791</v>
+      </c>
+      <c r="H67">
+        <v>0.0397746909746853</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0584444711734916</v>
+        <v>0.05963508224886648</v>
       </c>
       <c r="C68">
-        <v>0.0485176641548102</v>
+        <v>0.07210237838714244</v>
       </c>
       <c r="D68">
-        <v>0.2545639957427984</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2671775163295212</v>
+      </c>
+      <c r="E68">
+        <v>-0.03895570480530748</v>
+      </c>
+      <c r="F68">
+        <v>0.01519613402574399</v>
+      </c>
+      <c r="G68">
+        <v>-0.007207315935954407</v>
+      </c>
+      <c r="H68">
+        <v>0.004532564447867119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05167412921560267</v>
+        <v>0.05299264991589773</v>
       </c>
       <c r="C69">
-        <v>0.01481948739349822</v>
+        <v>0.004670846082949554</v>
       </c>
       <c r="D69">
-        <v>-0.01955154860633258</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01589172820591908</v>
+      </c>
+      <c r="E69">
+        <v>-0.02594115688843343</v>
+      </c>
+      <c r="F69">
+        <v>-0.01073284035606146</v>
+      </c>
+      <c r="G69">
+        <v>-0.02094507081206296</v>
+      </c>
+      <c r="H69">
+        <v>0.0510163495291246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.003584682036437205</v>
+        <v>0.02814616660290306</v>
       </c>
       <c r="C70">
-        <v>-0.008889730014429064</v>
+        <v>-0.003186127086456261</v>
       </c>
       <c r="D70">
-        <v>0.007612618602885898</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.004592870134227936</v>
+      </c>
+      <c r="E70">
+        <v>0.02618293274237375</v>
+      </c>
+      <c r="F70">
+        <v>0.01181800132109153</v>
+      </c>
+      <c r="G70">
+        <v>-0.01722698115588664</v>
+      </c>
+      <c r="H70">
+        <v>-0.02373413641380608</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05729499412152107</v>
+        <v>0.06244735137385629</v>
       </c>
       <c r="C71">
-        <v>0.04837597241365435</v>
+        <v>0.07812944725183656</v>
       </c>
       <c r="D71">
-        <v>0.2896515169028028</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2936228687025212</v>
+      </c>
+      <c r="E71">
+        <v>-0.03449515650249604</v>
+      </c>
+      <c r="F71">
+        <v>0.04482898981748339</v>
+      </c>
+      <c r="G71">
+        <v>0.00629782013206287</v>
+      </c>
+      <c r="H71">
+        <v>0.007747986079804664</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1434633705120333</v>
+        <v>0.145443241728811</v>
       </c>
       <c r="C72">
-        <v>0.05850557491272031</v>
+        <v>0.03322081256484412</v>
       </c>
       <c r="D72">
-        <v>-0.001470124462220347</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0006825784876412353</v>
+      </c>
+      <c r="E72">
+        <v>0.07509866314800803</v>
+      </c>
+      <c r="F72">
+        <v>-0.1707140299026953</v>
+      </c>
+      <c r="G72">
+        <v>0.1143964276719363</v>
+      </c>
+      <c r="H72">
+        <v>0.008977414617279323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2856282457574394</v>
+        <v>0.2887274502586741</v>
       </c>
       <c r="C73">
-        <v>0.09358829278235288</v>
+        <v>0.03419876064115025</v>
       </c>
       <c r="D73">
-        <v>-0.05010378625988018</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09985848340249563</v>
+      </c>
+      <c r="E73">
+        <v>0.2256816999349114</v>
+      </c>
+      <c r="F73">
+        <v>0.08652056266755197</v>
+      </c>
+      <c r="G73">
+        <v>-0.148582025329022</v>
+      </c>
+      <c r="H73">
+        <v>-0.4917188523173628</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08340873189154782</v>
+        <v>0.09166549795835678</v>
       </c>
       <c r="C74">
-        <v>0.07544031490924023</v>
+        <v>0.05871703642733272</v>
       </c>
       <c r="D74">
-        <v>-0.006138708124997952</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03183373865425447</v>
+      </c>
+      <c r="E74">
+        <v>0.001747774719957356</v>
+      </c>
+      <c r="F74">
+        <v>-0.0006622439257064394</v>
+      </c>
+      <c r="G74">
+        <v>-0.04955077870920944</v>
+      </c>
+      <c r="H74">
+        <v>0.119243546596005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09653306556653554</v>
+        <v>0.1014749875704815</v>
       </c>
       <c r="C75">
-        <v>0.04695728202653812</v>
+        <v>0.02583299049986687</v>
       </c>
       <c r="D75">
-        <v>-0.007706338219524892</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01818685761144108</v>
+      </c>
+      <c r="E75">
+        <v>-0.002476669630794657</v>
+      </c>
+      <c r="F75">
+        <v>0.01955133386227183</v>
+      </c>
+      <c r="G75">
+        <v>-0.02957256772481394</v>
+      </c>
+      <c r="H75">
+        <v>0.1111691121553247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1325900449733688</v>
+        <v>0.1430716035479556</v>
       </c>
       <c r="C76">
-        <v>0.07787217518379413</v>
+        <v>0.05629242751606672</v>
       </c>
       <c r="D76">
-        <v>-0.04056768543973147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04965372049891845</v>
+      </c>
+      <c r="E76">
+        <v>-0.01458036691682072</v>
+      </c>
+      <c r="F76">
+        <v>0.04805814185576399</v>
+      </c>
+      <c r="G76">
+        <v>-0.02291477992633851</v>
+      </c>
+      <c r="H76">
+        <v>0.2050293667728708</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1147429468534571</v>
+        <v>0.1045011967825201</v>
       </c>
       <c r="C77">
-        <v>0.006194043033803733</v>
+        <v>-0.02213701350478422</v>
       </c>
       <c r="D77">
-        <v>-0.1015258231198756</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04150538767872768</v>
+      </c>
+      <c r="E77">
+        <v>-0.02096024000547365</v>
+      </c>
+      <c r="F77">
+        <v>0.08549528452073893</v>
+      </c>
+      <c r="G77">
+        <v>0.8843927021305544</v>
+      </c>
+      <c r="H77">
+        <v>-0.1077362106980991</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1079500045825469</v>
+        <v>0.1458407709916112</v>
       </c>
       <c r="C78">
-        <v>0.03573521128592967</v>
+        <v>0.03002864530498531</v>
       </c>
       <c r="D78">
-        <v>-0.0818885654740283</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07909297025094804</v>
+      </c>
+      <c r="E78">
+        <v>-0.05404190184637905</v>
+      </c>
+      <c r="F78">
+        <v>0.05893853789683785</v>
+      </c>
+      <c r="G78">
+        <v>0.08865389549156848</v>
+      </c>
+      <c r="H78">
+        <v>-0.02772826543035619</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1489048666711718</v>
+        <v>0.1501583793954575</v>
       </c>
       <c r="C79">
-        <v>0.06660246573574158</v>
+        <v>0.03721205699244736</v>
       </c>
       <c r="D79">
-        <v>-0.02283170109581121</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03141614919431881</v>
+      </c>
+      <c r="E79">
+        <v>0.01647255949448316</v>
+      </c>
+      <c r="F79">
+        <v>0.01761888917719457</v>
+      </c>
+      <c r="G79">
+        <v>-0.0436702272349485</v>
+      </c>
+      <c r="H79">
+        <v>0.1638887928417965</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04094158569089941</v>
+        <v>0.04221048603783884</v>
       </c>
       <c r="C80">
-        <v>0.0185482826219765</v>
+        <v>0.01305200412895129</v>
       </c>
       <c r="D80">
-        <v>-0.02752938382528998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01411968251047089</v>
+      </c>
+      <c r="E80">
+        <v>0.02958606978660668</v>
+      </c>
+      <c r="F80">
+        <v>0.004621679666268043</v>
+      </c>
+      <c r="G80">
+        <v>-0.0202526595989099</v>
+      </c>
+      <c r="H80">
+        <v>0.03987412039211811</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1184830104312114</v>
+        <v>0.120782072329034</v>
       </c>
       <c r="C81">
-        <v>0.05853415112936737</v>
+        <v>0.0357600851337955</v>
       </c>
       <c r="D81">
-        <v>-0.03217250732947003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02668749065555868</v>
+      </c>
+      <c r="E81">
+        <v>-0.008680256040516806</v>
+      </c>
+      <c r="F81">
+        <v>0.02024457575329558</v>
+      </c>
+      <c r="G81">
+        <v>-0.06040400382110171</v>
+      </c>
+      <c r="H81">
+        <v>0.1520763070485479</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.131984112281517</v>
+        <v>0.1320518993905536</v>
       </c>
       <c r="C82">
-        <v>0.07193771915549031</v>
+        <v>0.04925992984262723</v>
       </c>
       <c r="D82">
-        <v>-0.01311197133471527</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.03021003425294406</v>
+      </c>
+      <c r="E82">
+        <v>0.02170983118957918</v>
+      </c>
+      <c r="F82">
+        <v>0.04860584649032307</v>
+      </c>
+      <c r="G82">
+        <v>-0.05122423679192394</v>
+      </c>
+      <c r="H82">
+        <v>0.2087059512311996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07138988026291666</v>
+        <v>0.08395906774597295</v>
       </c>
       <c r="C83">
-        <v>-0.02077785523830999</v>
+        <v>-0.03236011523160216</v>
       </c>
       <c r="D83">
-        <v>-0.02473955314271261</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02857471043361719</v>
+      </c>
+      <c r="E83">
+        <v>-0.01917121104852018</v>
+      </c>
+      <c r="F83">
+        <v>0.05576994514192585</v>
+      </c>
+      <c r="G83">
+        <v>-0.06781320177061095</v>
+      </c>
+      <c r="H83">
+        <v>-0.03839441539130019</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.0304647499789338</v>
+        <v>0.0374829994151944</v>
       </c>
       <c r="C84">
-        <v>0.02798005975098058</v>
+        <v>0.0221296477597149</v>
       </c>
       <c r="D84">
-        <v>-0.02221101142042802</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03059308686118155</v>
+      </c>
+      <c r="E84">
+        <v>-0.03071361439335892</v>
+      </c>
+      <c r="F84">
+        <v>-0.05203576311208666</v>
+      </c>
+      <c r="G84">
+        <v>-0.06103462366203299</v>
+      </c>
+      <c r="H84">
+        <v>0.009730432491095968</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1165612530354367</v>
+        <v>0.1195722541650329</v>
       </c>
       <c r="C85">
-        <v>0.04391231609871582</v>
+        <v>0.02159037420459409</v>
       </c>
       <c r="D85">
-        <v>-0.04233587708315609</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.03643175647307331</v>
+      </c>
+      <c r="E85">
+        <v>-0.01575592429707075</v>
+      </c>
+      <c r="F85">
+        <v>0.04262428550659665</v>
+      </c>
+      <c r="G85">
+        <v>-0.05274567592228703</v>
+      </c>
+      <c r="H85">
+        <v>0.1629333863091751</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05457588997159733</v>
+        <v>0.05841053134712004</v>
       </c>
       <c r="C86">
-        <v>0.0210245772090876</v>
+        <v>0.01019300988489421</v>
       </c>
       <c r="D86">
-        <v>-0.04697701720055113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03203528104860533</v>
+      </c>
+      <c r="E86">
+        <v>-0.05419944041591689</v>
+      </c>
+      <c r="F86">
+        <v>0.02668847263861995</v>
+      </c>
+      <c r="G86">
+        <v>-0.02689648262575144</v>
+      </c>
+      <c r="H86">
+        <v>-0.0004896195967336507</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1216627299175061</v>
+        <v>0.124012262261791</v>
       </c>
       <c r="C87">
-        <v>0.0642826027460944</v>
+        <v>0.03219594583918953</v>
       </c>
       <c r="D87">
-        <v>-0.06992541083215449</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.06810680285831965</v>
+      </c>
+      <c r="E87">
+        <v>-0.01404478856835333</v>
+      </c>
+      <c r="F87">
+        <v>0.01132841388575265</v>
+      </c>
+      <c r="G87">
+        <v>0.136660512542268</v>
+      </c>
+      <c r="H87">
+        <v>-0.04041734946902858</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05350914549797781</v>
+        <v>0.06144909732150759</v>
       </c>
       <c r="C88">
-        <v>0.02865232587639002</v>
+        <v>0.01964350216513298</v>
       </c>
       <c r="D88">
-        <v>-0.02120868893603452</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03332896259100896</v>
+      </c>
+      <c r="E88">
+        <v>-0.01569117746499229</v>
+      </c>
+      <c r="F88">
+        <v>0.01126847319714375</v>
+      </c>
+      <c r="G88">
+        <v>0.006145790331926292</v>
+      </c>
+      <c r="H88">
+        <v>0.051087537792181</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08607032196158639</v>
+        <v>0.09742642350751972</v>
       </c>
       <c r="C89">
-        <v>0.06926402691713754</v>
+        <v>0.1016082781870847</v>
       </c>
       <c r="D89">
-        <v>0.3294171816745692</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3444172137132313</v>
+      </c>
+      <c r="E89">
+        <v>-0.06854485904237573</v>
+      </c>
+      <c r="F89">
+        <v>0.08359564323221517</v>
+      </c>
+      <c r="G89">
+        <v>-0.0192486313053439</v>
+      </c>
+      <c r="H89">
+        <v>0.003300496348170796</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07421220502561433</v>
+        <v>0.08108835980736301</v>
       </c>
       <c r="C90">
-        <v>0.05803380437571557</v>
+        <v>0.08453178053894016</v>
       </c>
       <c r="D90">
-        <v>0.3129257753362961</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.303742372090312</v>
+      </c>
+      <c r="E90">
+        <v>-0.06786075904390858</v>
+      </c>
+      <c r="F90">
+        <v>0.009658292160594592</v>
+      </c>
+      <c r="G90">
+        <v>0.00509726643491899</v>
+      </c>
+      <c r="H90">
+        <v>0.0007497541211000251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08972531970751176</v>
+        <v>0.09157651095096364</v>
       </c>
       <c r="C91">
-        <v>0.05083305013920853</v>
+        <v>0.03035420843335504</v>
       </c>
       <c r="D91">
-        <v>-0.02081754437325569</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02954349867130143</v>
+      </c>
+      <c r="E91">
+        <v>-0.006877044269414157</v>
+      </c>
+      <c r="F91">
+        <v>0.004054254459627128</v>
+      </c>
+      <c r="G91">
+        <v>-0.04673595693110088</v>
+      </c>
+      <c r="H91">
+        <v>0.08520885101440584</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07460232956742333</v>
+        <v>0.0811960844826486</v>
       </c>
       <c r="C92">
-        <v>0.07324242868612123</v>
+        <v>0.1038349922949568</v>
       </c>
       <c r="D92">
-        <v>0.3365685500514419</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.338823270349618</v>
+      </c>
+      <c r="E92">
+        <v>-0.03922132417660018</v>
+      </c>
+      <c r="F92">
+        <v>0.04381032315568104</v>
+      </c>
+      <c r="G92">
+        <v>0.01883632184070997</v>
+      </c>
+      <c r="H92">
+        <v>0.0124704476737252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06484000496680711</v>
+        <v>0.07637785854877453</v>
       </c>
       <c r="C93">
-        <v>0.06427742064094406</v>
+        <v>0.09646617979955599</v>
       </c>
       <c r="D93">
-        <v>0.2983112093310985</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2998579211890488</v>
+      </c>
+      <c r="E93">
+        <v>-0.02295585046986512</v>
+      </c>
+      <c r="F93">
+        <v>0.03375953477453967</v>
+      </c>
+      <c r="G93">
+        <v>0.02066319867998816</v>
+      </c>
+      <c r="H93">
+        <v>-0.01181540556682965</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1355807415637336</v>
+        <v>0.1297297444022021</v>
       </c>
       <c r="C94">
-        <v>0.04401678498851989</v>
+        <v>0.01341923040200103</v>
       </c>
       <c r="D94">
-        <v>-0.03786709768454037</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04622862669820157</v>
+      </c>
+      <c r="E94">
+        <v>0.01805184293187428</v>
+      </c>
+      <c r="F94">
+        <v>0.01305954700810558</v>
+      </c>
+      <c r="G94">
+        <v>-0.06602580172073208</v>
+      </c>
+      <c r="H94">
+        <v>0.1010285585206616</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1253597183862561</v>
+        <v>0.1291129417253819</v>
       </c>
       <c r="C95">
-        <v>0.02660976766414728</v>
+        <v>-0.0008191456458959391</v>
       </c>
       <c r="D95">
-        <v>-0.04708323434222614</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.05755633807715316</v>
+      </c>
+      <c r="E95">
+        <v>-0.007167857268963531</v>
+      </c>
+      <c r="F95">
+        <v>0.03737981308683101</v>
+      </c>
+      <c r="G95">
+        <v>0.03097511199863947</v>
+      </c>
+      <c r="H95">
+        <v>-0.04875534851131893</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2234753820970989</v>
+        <v>0.2034094672789418</v>
       </c>
       <c r="C97">
-        <v>0.04171644579336407</v>
+        <v>-0.003474398144022956</v>
       </c>
       <c r="D97">
-        <v>0.1166697176169273</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0786118332213508</v>
+      </c>
+      <c r="E97">
+        <v>0.1538904667972262</v>
+      </c>
+      <c r="F97">
+        <v>-0.9156820606842949</v>
+      </c>
+      <c r="G97">
+        <v>0.06258624044865246</v>
+      </c>
+      <c r="H97">
+        <v>0.01426556735081989</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2480098289060399</v>
+        <v>0.2755552282288605</v>
       </c>
       <c r="C98">
-        <v>0.05838696840968905</v>
+        <v>0.02205362569447551</v>
       </c>
       <c r="D98">
-        <v>-0.03339831544026019</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05536328679129249</v>
+      </c>
+      <c r="E98">
+        <v>0.1921827663938675</v>
+      </c>
+      <c r="F98">
+        <v>0.04801170405010883</v>
+      </c>
+      <c r="G98">
+        <v>-0.2406413918099628</v>
+      </c>
+      <c r="H98">
+        <v>-0.2639596754789944</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4003081904970722</v>
+        <v>0.2700718580185706</v>
       </c>
       <c r="C99">
-        <v>-0.8985476187531958</v>
+        <v>-0.927675997870941</v>
       </c>
       <c r="D99">
-        <v>0.05806389242668017</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1818068983785537</v>
+      </c>
+      <c r="E99">
+        <v>-0.06883442606629385</v>
+      </c>
+      <c r="F99">
+        <v>0.06309832372919479</v>
+      </c>
+      <c r="G99">
+        <v>-0.02304217400664348</v>
+      </c>
+      <c r="H99">
+        <v>0.06935608571903969</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04198835571671827</v>
+        <v>0.04854146902820852</v>
       </c>
       <c r="C101">
-        <v>0.02911898371552978</v>
+        <v>0.02589203507741445</v>
       </c>
       <c r="D101">
-        <v>-0.009263011835664775</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.008961710226126291</v>
+      </c>
+      <c r="E101">
+        <v>-0.06048016161745969</v>
+      </c>
+      <c r="F101">
+        <v>0.01456049806871901</v>
+      </c>
+      <c r="G101">
+        <v>-0.005225924650418901</v>
+      </c>
+      <c r="H101">
+        <v>0.06985330958285696</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
